--- a/需求分析/接口文档/客户/团队接口.xlsx
+++ b/需求分析/接口文档/客户/团队接口.xlsx
@@ -4,23 +4,46 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21390" windowHeight="6855"/>
+    <workbookView windowWidth="21390" windowHeight="9225" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="更新说明" sheetId="2" r:id="rId1"/>
+    <sheet name="团队" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>接口标签</t>
+  </si>
+  <si>
+    <t>接口名称</t>
+  </si>
+  <si>
+    <t>更新内容</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>团队</t>
+  </si>
   <si>
     <t>获取部门列表</t>
   </si>
   <si>
+    <t>增加部门人数返回</t>
+  </si>
+  <si>
+    <t>已验证</t>
+  </si>
+  <si>
     <t>请求地址</t>
   </si>
   <si>
@@ -84,6 +107,12 @@
     <t>部门名称</t>
   </si>
   <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>部门人数</t>
+  </si>
+  <si>
     <t>获取部门详情</t>
   </si>
   <si>
@@ -99,12 +128,6 @@
     <t>团队名称</t>
   </si>
   <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>部门人数</t>
-  </si>
-  <si>
     <t>createDate</t>
   </si>
   <si>
@@ -157,6 +180,9 @@
   </si>
   <si>
     <t>用户Id</t>
+  </si>
+  <si>
+    <t>获取成员详情</t>
   </si>
   <si>
     <t>/s/getDepartmentMember.action</t>
@@ -181,10 +207,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,13 +236,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -225,6 +244,14 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,29 +286,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -295,19 +299,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,14 +315,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -350,6 +337,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -357,8 +368,16 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,30 +404,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -421,13 +464,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,139 +560,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,6 +595,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -615,6 +637,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -633,17 +664,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,15 +677,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,49 +700,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -741,98 +754,98 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -842,32 +855,38 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="35" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="35" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="35" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="35" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="35">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="35" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="35">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="35" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="35" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="40" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="19" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="35" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="35" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="19" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="40" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="31" fontId="1" fillId="6" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="39" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1217,17 +1236,75 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.25" spans="1:5">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="11">
+        <v>42987</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="P99" sqref="P99:R100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1263,25 +1340,25 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1290,29 +1367,29 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1324,20 +1401,20 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -1349,16 +1426,16 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -1376,40 +1453,61 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="8"/>
+      <c r="K7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="6"/>
       <c r="M7" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="10"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="6"/>
       <c r="M8" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1445,25 +1543,25 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -1472,29 +1570,29 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -1506,159 +1604,159 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28" s="8"/>
-      <c r="M28" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L31" s="10"/>
-      <c r="M31" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L32" s="10"/>
-      <c r="M32" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L32" s="6"/>
+      <c r="M32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1694,25 +1792,25 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -1721,29 +1819,29 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -1755,20 +1853,20 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L48" s="4"/>
       <c r="M48" s="4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
@@ -1780,16 +1878,16 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
@@ -1797,201 +1895,201 @@
       <c r="O49" s="4"/>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" s="8"/>
-      <c r="H50" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L50" s="10"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L50" s="6"/>
       <c r="M50" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L51" s="10"/>
-      <c r="M51" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L51" s="6"/>
+      <c r="M51" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L52" s="10"/>
-      <c r="M52" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L52" s="6"/>
+      <c r="M52" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L53" s="10"/>
-      <c r="M53" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L53" s="6"/>
+      <c r="M53" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L54" s="10"/>
-      <c r="M54" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L54" s="6"/>
+      <c r="M54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L55" s="10"/>
-      <c r="M55" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L55" s="6"/>
+      <c r="M55" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L56" s="10"/>
-      <c r="M56" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L56" s="6"/>
+      <c r="M56" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L57" s="10"/>
-      <c r="M57" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L57" s="6"/>
+      <c r="M57" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L58" s="10"/>
-      <c r="M58" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L58" s="6"/>
+      <c r="M58" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2027,25 +2125,25 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -2054,29 +2152,29 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
@@ -2088,20 +2186,20 @@
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L74" s="4"/>
       <c r="M74" s="4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
@@ -2113,16 +2211,16 @@
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
@@ -2130,201 +2228,201 @@
       <c r="O75" s="4"/>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G76" s="8"/>
-      <c r="H76" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L76" s="10"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L76" s="6"/>
       <c r="M76" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L77" s="10"/>
-      <c r="M77" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L77" s="6"/>
+      <c r="M77" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
     </row>
     <row r="78" spans="1:15">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L78" s="10"/>
-      <c r="M78" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L78" s="6"/>
+      <c r="M78" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
     </row>
     <row r="79" spans="1:15">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L79" s="10"/>
-      <c r="M79" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L79" s="6"/>
+      <c r="M79" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
     </row>
     <row r="80" spans="1:15">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L80" s="10"/>
-      <c r="M80" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L80" s="6"/>
+      <c r="M80" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
     </row>
     <row r="81" spans="1:15">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L81" s="10"/>
-      <c r="M81" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L81" s="6"/>
+      <c r="M81" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
     </row>
     <row r="82" spans="1:15">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L82" s="10"/>
-      <c r="M82" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L82" s="6"/>
+      <c r="M82" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
     </row>
     <row r="83" spans="1:15">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L83" s="10"/>
-      <c r="M83" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L83" s="6"/>
+      <c r="M83" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
     </row>
     <row r="84" spans="1:15">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L84" s="10"/>
-      <c r="M84" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L84" s="6"/>
+      <c r="M84" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2340,11 +2438,11 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
-      <c r="P99" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q99" s="11"/>
-      <c r="R99" s="11"/>
+      <c r="P99" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q99" s="8"/>
+      <c r="R99" s="8"/>
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="1"/>
@@ -2362,31 +2460,31 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
-      <c r="P100" s="11"/>
-      <c r="Q100" s="11"/>
-      <c r="R100" s="11"/>
+      <c r="P100" s="8"/>
+      <c r="Q100" s="8"/>
+      <c r="R100" s="8"/>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
@@ -2395,29 +2493,29 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L102" s="3"/>
       <c r="M102" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
@@ -2429,20 +2527,20 @@
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L103" s="4"/>
       <c r="M103" s="4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
@@ -2454,16 +2552,16 @@
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
@@ -2471,200 +2569,200 @@
       <c r="O104" s="4"/>
     </row>
     <row r="105" spans="1:15">
-      <c r="A105" s="9"/>
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G105" s="8"/>
-      <c r="H105" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L105" s="10"/>
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L105" s="6"/>
       <c r="M105" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
     </row>
     <row r="106" spans="1:15">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
-      <c r="K106" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L106" s="10"/>
-      <c r="M106" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N106" s="6"/>
-      <c r="O106" s="6"/>
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L106" s="6"/>
+      <c r="M106" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
     </row>
     <row r="107" spans="1:15">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L107" s="10"/>
-      <c r="M107" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N107" s="6"/>
-      <c r="O107" s="6"/>
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L107" s="6"/>
+      <c r="M107" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N107" s="4"/>
+      <c r="O107" s="4"/>
     </row>
     <row r="108" spans="1:15">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L108" s="10"/>
-      <c r="M108" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N108" s="6"/>
-      <c r="O108" s="6"/>
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L108" s="6"/>
+      <c r="M108" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
     </row>
     <row r="109" spans="1:15">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L109" s="10"/>
-      <c r="M109" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N109" s="6"/>
-      <c r="O109" s="6"/>
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L109" s="6"/>
+      <c r="M109" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
     </row>
     <row r="110" spans="1:15">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L110" s="10"/>
-      <c r="M110" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N110" s="6"/>
-      <c r="O110" s="6"/>
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L110" s="6"/>
+      <c r="M110" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
     </row>
     <row r="111" spans="1:15">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L111" s="10"/>
-      <c r="M111" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N111" s="6"/>
-      <c r="O111" s="6"/>
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L111" s="6"/>
+      <c r="M111" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
     </row>
     <row r="112" spans="1:15">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L112" s="10"/>
-      <c r="M112" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="N112" s="6"/>
-      <c r="O112" s="6"/>
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L112" s="6"/>
+      <c r="M112" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
     </row>
     <row r="113" spans="1:15">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L113" s="10"/>
-      <c r="M113" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N113" s="6"/>
-      <c r="O113" s="6"/>
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L113" s="6"/>
+      <c r="M113" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="164">
+  <mergeCells count="166">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -2687,6 +2785,8 @@
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="M8:O8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:O9"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="H24:J24"/>
@@ -2834,38 +2934,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/需求分析/接口文档/客户/团队接口.xlsx
+++ b/需求分析/接口文档/客户/团队接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21390" windowHeight="9225" activeTab="1"/>
+    <workbookView windowWidth="21420" windowHeight="9240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="更新说明" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>更新时间</t>
   </si>
@@ -44,6 +44,12 @@
     <t>已验证</t>
   </si>
   <si>
+    <t>获取团队部门及成员</t>
+  </si>
+  <si>
+    <t>新增接口</t>
+  </si>
+  <si>
     <t>请求地址</t>
   </si>
   <si>
@@ -140,6 +146,9 @@
     <t>/s/findDepartmentMember.action</t>
   </si>
   <si>
+    <t>departmentName</t>
+  </si>
+  <si>
     <t>positionName</t>
   </si>
   <si>
@@ -198,6 +207,12 @@
   </si>
   <si>
     <t>搜索关键字</t>
+  </si>
+  <si>
+    <t>/s/listDepartmentAndMember.action</t>
+  </si>
+  <si>
+    <t>memberList(json数组)</t>
   </si>
 </sst>
 </file>
@@ -207,8 +222,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -255,59 +270,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,25 +293,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,9 +339,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,6 +361,36 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -410,6 +425,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -428,7 +449,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,7 +479,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,13 +491,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,7 +521,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,43 +581,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,61 +599,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,30 +637,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -670,17 +661,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -695,6 +675,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -703,10 +718,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -715,137 +730,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,19 +888,16 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="40" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="36" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="19" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="19" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="1" fillId="7" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="6" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="39" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1236,13 +1248,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
@@ -1251,16 +1263,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="1:5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
@@ -1280,7 +1292,24 @@
       <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="11">
+        <v>42989</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1294,10 +1323,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R113"/>
+  <dimension ref="A1:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="O125" sqref="O125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1340,25 +1369,25 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1367,29 +1396,29 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1401,20 +1430,20 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -1426,16 +1455,16 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -1454,11 +1483,11 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1475,11 +1504,11 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1496,18 +1525,18 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1543,25 +1572,25 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -1570,29 +1599,29 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -1604,20 +1633,20 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -1629,16 +1658,16 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -1652,20 +1681,20 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -1682,11 +1711,11 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -1703,11 +1732,11 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -1724,11 +1753,11 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -1745,18 +1774,18 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1792,25 +1821,25 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -1819,29 +1848,29 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -1853,20 +1882,20 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L48" s="4"/>
       <c r="M48" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
@@ -1878,16 +1907,16 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
@@ -1901,20 +1930,20 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="6" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
@@ -1931,11 +1960,11 @@
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
@@ -1952,11 +1981,11 @@
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -1973,11 +2002,11 @@
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L53" s="6"/>
       <c r="M53" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
@@ -1994,11 +2023,11 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
@@ -2015,11 +2044,11 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L55" s="6"/>
       <c r="M55" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
@@ -2036,11 +2065,11 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L56" s="6"/>
       <c r="M56" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
@@ -2057,11 +2086,11 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L57" s="6"/>
       <c r="M57" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
@@ -2078,18 +2107,18 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2125,25 +2154,25 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -2152,29 +2181,29 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
@@ -2186,20 +2215,20 @@
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L74" s="4"/>
       <c r="M74" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
@@ -2211,16 +2240,16 @@
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
@@ -2234,20 +2263,20 @@
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="6" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="L76" s="6"/>
       <c r="M76" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
@@ -2264,11 +2293,11 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L77" s="6"/>
       <c r="M77" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
@@ -2285,11 +2314,11 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L78" s="6"/>
       <c r="M78" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
@@ -2306,11 +2335,11 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L79" s="6"/>
       <c r="M79" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
@@ -2327,11 +2356,11 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L80" s="6"/>
       <c r="M80" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
@@ -2348,11 +2377,11 @@
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L81" s="6"/>
       <c r="M81" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
@@ -2369,11 +2398,11 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L82" s="6"/>
       <c r="M82" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
@@ -2390,11 +2419,11 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L83" s="6"/>
       <c r="M83" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
@@ -2411,18 +2440,18 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L84" s="6"/>
       <c r="M84" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2439,7 +2468,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Q99" s="8"/>
       <c r="R99" s="8"/>
@@ -2466,25 +2495,25 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
@@ -2493,29 +2522,29 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L102" s="3"/>
       <c r="M102" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
@@ -2527,20 +2556,20 @@
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L103" s="4"/>
       <c r="M103" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
@@ -2552,16 +2581,16 @@
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
@@ -2575,20 +2604,20 @@
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
       <c r="K105" s="6" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="L105" s="6"/>
       <c r="M105" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
@@ -2605,11 +2634,11 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L106" s="6"/>
       <c r="M106" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
@@ -2626,11 +2655,11 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L107" s="6"/>
       <c r="M107" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
@@ -2647,11 +2676,11 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L108" s="6"/>
       <c r="M108" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
@@ -2668,11 +2697,11 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L109" s="6"/>
       <c r="M109" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
@@ -2689,11 +2718,11 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L110" s="6"/>
       <c r="M110" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
@@ -2710,11 +2739,11 @@
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
       <c r="K111" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L111" s="6"/>
       <c r="M111" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
@@ -2731,11 +2760,11 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L112" s="6"/>
       <c r="M112" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
@@ -2752,17 +2781,428 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L113" s="6"/>
       <c r="M113" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
     </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L130" s="3"/>
+      <c r="M130" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N130" s="3"/>
+      <c r="O130" s="3"/>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
+      <c r="N132" s="4"/>
+      <c r="O132" s="4"/>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L133" s="6"/>
+      <c r="M133" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N133" s="4"/>
+      <c r="O133" s="4"/>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L134" s="6"/>
+      <c r="M134" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N134" s="4"/>
+      <c r="O134" s="4"/>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L135" s="6"/>
+      <c r="M135" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N135" s="4"/>
+      <c r="O135" s="4"/>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L136" s="9"/>
+      <c r="M136" s="9"/>
+      <c r="N136" s="9"/>
+      <c r="O136" s="9"/>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L137" s="9"/>
+      <c r="M137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N137" s="9"/>
+      <c r="O137" s="9"/>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L138" s="9"/>
+      <c r="M138" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N138" s="9"/>
+      <c r="O138" s="9"/>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L139" s="9"/>
+      <c r="M139" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N139" s="9"/>
+      <c r="O139" s="9"/>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L140" s="9"/>
+      <c r="M140" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N140" s="9"/>
+      <c r="O140" s="9"/>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="5"/>
+      <c r="K141" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L141" s="9"/>
+      <c r="M141" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N141" s="9"/>
+      <c r="O141" s="9"/>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L142" s="9"/>
+      <c r="M142" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N142" s="9"/>
+      <c r="O142" s="9"/>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L143" s="9"/>
+      <c r="M143" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N143" s="9"/>
+      <c r="O143" s="9"/>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L144" s="9"/>
+      <c r="M144" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N144" s="9"/>
+      <c r="O144" s="9"/>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L145" s="9"/>
+      <c r="M145" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="N145" s="9"/>
+      <c r="O145" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="166">
+  <mergeCells count="210">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -2923,12 +3363,56 @@
     <mergeCell ref="M112:O112"/>
     <mergeCell ref="K113:L113"/>
     <mergeCell ref="M113:O113"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="F129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:O129"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="F130:G130"/>
+    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="K130:L130"/>
+    <mergeCell ref="M130:O130"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="H131:J131"/>
+    <mergeCell ref="K131:L131"/>
+    <mergeCell ref="M131:O131"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="H132:J132"/>
+    <mergeCell ref="K132:O132"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="H133:J133"/>
+    <mergeCell ref="K133:L133"/>
+    <mergeCell ref="M133:O133"/>
+    <mergeCell ref="K134:L134"/>
+    <mergeCell ref="M134:O134"/>
+    <mergeCell ref="K135:L135"/>
+    <mergeCell ref="M135:O135"/>
+    <mergeCell ref="K136:O136"/>
+    <mergeCell ref="K137:L137"/>
+    <mergeCell ref="M137:O137"/>
+    <mergeCell ref="K138:L138"/>
+    <mergeCell ref="M138:O138"/>
+    <mergeCell ref="K139:L139"/>
+    <mergeCell ref="M139:O139"/>
+    <mergeCell ref="K140:L140"/>
+    <mergeCell ref="M140:O140"/>
+    <mergeCell ref="K141:L141"/>
+    <mergeCell ref="M141:O141"/>
+    <mergeCell ref="K142:L142"/>
+    <mergeCell ref="M142:O142"/>
+    <mergeCell ref="K143:L143"/>
+    <mergeCell ref="M143:O143"/>
+    <mergeCell ref="K144:L144"/>
+    <mergeCell ref="M144:O144"/>
+    <mergeCell ref="K145:L145"/>
+    <mergeCell ref="M145:O145"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A22:O23"/>
     <mergeCell ref="A44:O45"/>
     <mergeCell ref="A70:O71"/>
     <mergeCell ref="A99:O100"/>
     <mergeCell ref="P99:R100"/>
+    <mergeCell ref="A127:O128"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/需求分析/接口文档/客户/团队接口.xlsx
+++ b/需求分析/接口文档/客户/团队接口.xlsx
@@ -4,209 +4,181 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21420" windowHeight="9240" activeTab="1"/>
+    <workbookView windowWidth="23715" windowHeight="10665"/>
   </bookViews>
   <sheets>
-    <sheet name="更新说明" sheetId="2" r:id="rId1"/>
-    <sheet name="团队" sheetId="1" r:id="rId2"/>
+    <sheet name="团队" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
-  <si>
-    <t>更新时间</t>
-  </si>
-  <si>
-    <t>接口标签</t>
-  </si>
-  <si>
-    <t>接口名称</t>
-  </si>
-  <si>
-    <t>更新内容</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>团队</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>获取部门列表</t>
   </si>
   <si>
-    <t>增加部门人数返回</t>
-  </si>
-  <si>
-    <t>已验证</t>
+    <t>请求地址</t>
+  </si>
+  <si>
+    <t>请求方式</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>参数说明</t>
+  </si>
+  <si>
+    <t>返回结果</t>
+  </si>
+  <si>
+    <t>/s/listTeamDepartment.action</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>当前登录用户Id</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>1为成功，0为失败</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>令牌</t>
+  </si>
+  <si>
+    <t>下次请求的令牌</t>
+  </si>
+  <si>
+    <t>myTeamId</t>
+  </si>
+  <si>
+    <t>企业码</t>
+  </si>
+  <si>
+    <t>result(json数组)</t>
+  </si>
+  <si>
+    <t>teamDepartmentId</t>
+  </si>
+  <si>
+    <t>部门Id</t>
+  </si>
+  <si>
+    <t>teamDepartmentName</t>
+  </si>
+  <si>
+    <t>部门名称</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>部门人数</t>
+  </si>
+  <si>
+    <t>获取部门详情</t>
+  </si>
+  <si>
+    <t>/s/findDepartmentDetail.action</t>
+  </si>
+  <si>
+    <t>result(json对象)</t>
+  </si>
+  <si>
+    <t>myTeamName</t>
+  </si>
+  <si>
+    <t>团队名称</t>
+  </si>
+  <si>
+    <t>createDate</t>
+  </si>
+  <si>
+    <t>成立时间</t>
+  </si>
+  <si>
+    <t>获取部门下成员列表</t>
+  </si>
+  <si>
+    <t>/s/findDepartmentMember.action</t>
+  </si>
+  <si>
+    <t>departmentName</t>
+  </si>
+  <si>
+    <t>positionName</t>
+  </si>
+  <si>
+    <t>职位名称</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>用户名称</t>
+  </si>
+  <si>
+    <t>userPhone</t>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>userIdentity</t>
+  </si>
+  <si>
+    <t>身份证号</t>
+  </si>
+  <si>
+    <t>userImg</t>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
+    <t>userSex</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>memberId</t>
+  </si>
+  <si>
+    <t>用户Id</t>
+  </si>
+  <si>
+    <t>获取成员详情</t>
+  </si>
+  <si>
+    <t>/s/getDepartmentMember.action</t>
+  </si>
+  <si>
+    <t>根据手机号或用户名搜索用户</t>
+  </si>
+  <si>
+    <t>手机号要输入完整才能搜索出结果，用户名支持模糊搜索</t>
+  </si>
+  <si>
+    <t>/s/findMemberByNameOrPhone.action</t>
+  </si>
+  <si>
+    <t>搜索关键字</t>
   </si>
   <si>
     <t>获取团队部门及成员</t>
-  </si>
-  <si>
-    <t>新增接口</t>
-  </si>
-  <si>
-    <t>请求地址</t>
-  </si>
-  <si>
-    <t>请求方式</t>
-  </si>
-  <si>
-    <t>参数</t>
-  </si>
-  <si>
-    <t>参数说明</t>
-  </si>
-  <si>
-    <t>返回结果</t>
-  </si>
-  <si>
-    <t>/s/listTeamDepartment.action</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>userId</t>
-  </si>
-  <si>
-    <t>当前登录用户Id</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>1为成功，0为失败</t>
-  </si>
-  <si>
-    <t>token</t>
-  </si>
-  <si>
-    <t>令牌</t>
-  </si>
-  <si>
-    <t>下次请求的令牌</t>
-  </si>
-  <si>
-    <t>myTeamId</t>
-  </si>
-  <si>
-    <t>企业码</t>
-  </si>
-  <si>
-    <t>result(json数组)</t>
-  </si>
-  <si>
-    <t>teamDepartmentId</t>
-  </si>
-  <si>
-    <t>部门Id</t>
-  </si>
-  <si>
-    <t>teamDepartmentName</t>
-  </si>
-  <si>
-    <t>部门名称</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>部门人数</t>
-  </si>
-  <si>
-    <t>获取部门详情</t>
-  </si>
-  <si>
-    <t>/s/findDepartmentDetail.action</t>
-  </si>
-  <si>
-    <t>result(json对象)</t>
-  </si>
-  <si>
-    <t>myTeamName</t>
-  </si>
-  <si>
-    <t>团队名称</t>
-  </si>
-  <si>
-    <t>createDate</t>
-  </si>
-  <si>
-    <t>成立时间</t>
-  </si>
-  <si>
-    <t>获取部门下成员列表</t>
-  </si>
-  <si>
-    <t>/s/findDepartmentMember.action</t>
-  </si>
-  <si>
-    <t>departmentName</t>
-  </si>
-  <si>
-    <t>positionName</t>
-  </si>
-  <si>
-    <t>职位名称</t>
-  </si>
-  <si>
-    <t>userName</t>
-  </si>
-  <si>
-    <t>用户名称</t>
-  </si>
-  <si>
-    <t>userPhone</t>
-  </si>
-  <si>
-    <t>手机号</t>
-  </si>
-  <si>
-    <t>userIdentity</t>
-  </si>
-  <si>
-    <t>身份证号</t>
-  </si>
-  <si>
-    <t>userImg</t>
-  </si>
-  <si>
-    <t>头像</t>
-  </si>
-  <si>
-    <t>userSex</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>memberId</t>
-  </si>
-  <si>
-    <t>用户Id</t>
-  </si>
-  <si>
-    <t>获取成员详情</t>
-  </si>
-  <si>
-    <t>/s/getDepartmentMember.action</t>
-  </si>
-  <si>
-    <t>根据手机号或用户名搜索用户</t>
-  </si>
-  <si>
-    <t>手机号要输入完整才能搜索出结果，用户名支持模糊搜索</t>
-  </si>
-  <si>
-    <t>/s/findMemberByNameOrPhone.action</t>
-  </si>
-  <si>
-    <t>搜索关键字</t>
   </si>
   <si>
     <t>/s/listDepartmentAndMember.action</t>
@@ -220,10 +192,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -263,10 +235,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -279,7 +251,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,7 +275,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,23 +296,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,16 +320,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,17 +350,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,15 +363,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,13 +403,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +439,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,114 +541,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -587,19 +553,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,11 +573,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,6 +623,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,58 +665,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,149 +678,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -889,15 +849,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="36" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="19" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="7" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1248,92 +1199,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="20.25" spans="1:5">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="11">
-        <v>42987</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="11">
-        <v>42989</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="O125" sqref="O125"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1369,25 +1245,25 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1396,29 +1272,29 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1430,20 +1306,20 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -1455,16 +1331,16 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -1483,11 +1359,11 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1504,11 +1380,11 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1525,18 +1401,18 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1572,25 +1448,25 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -1599,29 +1475,29 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -1633,20 +1509,20 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -1658,16 +1534,16 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -1681,20 +1557,20 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -1711,11 +1587,11 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -1732,11 +1608,11 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -1753,11 +1629,11 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -1774,18 +1650,18 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="6" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1821,25 +1697,25 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -1848,29 +1724,29 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -1882,20 +1758,20 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L48" s="4"/>
       <c r="M48" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
@@ -1907,16 +1783,16 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
@@ -1930,20 +1806,20 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
@@ -1960,11 +1836,11 @@
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
@@ -1981,11 +1857,11 @@
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="6" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -2002,11 +1878,11 @@
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="L53" s="6"/>
       <c r="M53" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
@@ -2023,11 +1899,11 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
@@ -2044,11 +1920,11 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L55" s="6"/>
       <c r="M55" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
@@ -2065,11 +1941,11 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="6" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L56" s="6"/>
       <c r="M56" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
@@ -2086,11 +1962,11 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L57" s="6"/>
       <c r="M57" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
@@ -2107,18 +1983,18 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2154,25 +2030,25 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -2181,29 +2057,29 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
@@ -2215,20 +2091,20 @@
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L74" s="4"/>
       <c r="M74" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
@@ -2240,16 +2116,16 @@
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
@@ -2263,20 +2139,20 @@
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="L76" s="6"/>
       <c r="M76" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
@@ -2293,11 +2169,11 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="L77" s="6"/>
       <c r="M77" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
@@ -2314,11 +2190,11 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="6" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="L78" s="6"/>
       <c r="M78" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
@@ -2335,11 +2211,11 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="L79" s="6"/>
       <c r="M79" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
@@ -2356,11 +2232,11 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L80" s="6"/>
       <c r="M80" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
@@ -2377,11 +2253,11 @@
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L81" s="6"/>
       <c r="M81" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
@@ -2398,11 +2274,11 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="6" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L82" s="6"/>
       <c r="M82" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
@@ -2419,11 +2295,11 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L83" s="6"/>
       <c r="M83" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
@@ -2440,18 +2316,18 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="L84" s="6"/>
       <c r="M84" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2468,7 +2344,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="8" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="Q99" s="8"/>
       <c r="R99" s="8"/>
@@ -2495,25 +2371,25 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
@@ -2522,29 +2398,29 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L102" s="3"/>
       <c r="M102" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
@@ -2556,20 +2432,20 @@
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L103" s="4"/>
       <c r="M103" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
@@ -2581,16 +2457,16 @@
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
@@ -2604,20 +2480,20 @@
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
       <c r="K105" s="6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="L105" s="6"/>
       <c r="M105" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
@@ -2634,11 +2510,11 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="L106" s="6"/>
       <c r="M106" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
@@ -2655,11 +2531,11 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="6" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="L107" s="6"/>
       <c r="M107" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
@@ -2676,11 +2552,11 @@
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
       <c r="K108" s="6" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="L108" s="6"/>
       <c r="M108" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
@@ -2697,11 +2573,11 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L109" s="6"/>
       <c r="M109" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
@@ -2718,11 +2594,11 @@
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L110" s="6"/>
       <c r="M110" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
@@ -2739,11 +2615,11 @@
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
       <c r="K111" s="6" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L111" s="6"/>
       <c r="M111" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
@@ -2760,11 +2636,11 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L112" s="6"/>
       <c r="M112" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
@@ -2781,18 +2657,18 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="L113" s="6"/>
       <c r="M113" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -2828,25 +2704,25 @@
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G129" s="2"/>
       <c r="H129" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
       <c r="K129" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
@@ -2855,29 +2731,29 @@
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L130" s="3"/>
       <c r="M130" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="N130" s="3"/>
       <c r="O130" s="3"/>
@@ -2889,20 +2765,20 @@
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G131" s="4"/>
       <c r="H131" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
       <c r="K131" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L131" s="4"/>
       <c r="M131" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
@@ -2914,16 +2790,16 @@
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G132" s="4"/>
       <c r="H132" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
       <c r="K132" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="L132" s="4"/>
       <c r="M132" s="4"/>
@@ -2942,11 +2818,11 @@
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
       <c r="K133" s="6" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L133" s="6"/>
       <c r="M133" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N133" s="4"/>
       <c r="O133" s="4"/>
@@ -2963,11 +2839,11 @@
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
       <c r="K134" s="6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L134" s="6"/>
       <c r="M134" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N134" s="4"/>
       <c r="O134" s="4"/>
@@ -2984,11 +2860,11 @@
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
       <c r="K135" s="6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="L135" s="6"/>
       <c r="M135" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N135" s="4"/>
       <c r="O135" s="4"/>
@@ -3005,7 +2881,7 @@
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
       <c r="K136" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="L136" s="9"/>
       <c r="M136" s="9"/>
@@ -3024,11 +2900,11 @@
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
       <c r="K137" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="L137" s="9"/>
       <c r="M137" s="9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N137" s="9"/>
       <c r="O137" s="9"/>
@@ -3045,11 +2921,11 @@
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
       <c r="K138" s="9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="L138" s="9"/>
       <c r="M138" s="9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N138" s="9"/>
       <c r="O138" s="9"/>
@@ -3066,11 +2942,11 @@
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
       <c r="K139" s="9" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="L139" s="9"/>
       <c r="M139" s="9" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N139" s="9"/>
       <c r="O139" s="9"/>
@@ -3087,11 +2963,11 @@
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
       <c r="K140" s="9" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="L140" s="9"/>
       <c r="M140" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N140" s="9"/>
       <c r="O140" s="9"/>
@@ -3108,11 +2984,11 @@
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
       <c r="K141" s="9" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L141" s="9"/>
       <c r="M141" s="9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N141" s="9"/>
       <c r="O141" s="9"/>
@@ -3129,11 +3005,11 @@
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
       <c r="K142" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L142" s="9"/>
       <c r="M142" s="9" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="N142" s="9"/>
       <c r="O142" s="9"/>
@@ -3150,11 +3026,11 @@
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
       <c r="K143" s="9" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L143" s="9"/>
       <c r="M143" s="9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="N143" s="9"/>
       <c r="O143" s="9"/>
@@ -3171,11 +3047,11 @@
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
       <c r="K144" s="9" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L144" s="9"/>
       <c r="M144" s="9" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N144" s="9"/>
       <c r="O144" s="9"/>
@@ -3192,11 +3068,11 @@
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
       <c r="K145" s="9" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="L145" s="9"/>
       <c r="M145" s="9" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="N145" s="9"/>
       <c r="O145" s="9"/>

--- a/需求分析/接口文档/客户/团队接口.xlsx
+++ b/需求分析/接口文档/客户/团队接口.xlsx
@@ -192,9 +192,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -234,9 +234,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,16 +279,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,14 +297,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,23 +305,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,14 +349,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -335,32 +356,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -403,13 +403,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,13 +439,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,121 +559,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,6 +570,78 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -590,45 +662,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -637,39 +670,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -678,10 +678,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,91 +690,91 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -783,40 +783,40 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1201,8 +1201,8 @@
   <sheetPr/>
   <dimension ref="A1:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:O23"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="L122" sqref="L122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/团队接口.xlsx
+++ b/需求分析/接口文档/客户/团队接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23715" windowHeight="10665"/>
+    <workbookView windowWidth="23025" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="团队" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>获取部门列表</t>
   </si>
@@ -157,13 +157,16 @@
     <t>memberId</t>
   </si>
   <si>
+    <t>用户Id(融云Id)</t>
+  </si>
+  <si>
+    <t>获取成员详情</t>
+  </si>
+  <si>
+    <t>/s/getDepartmentMember.action</t>
+  </si>
+  <si>
     <t>用户Id</t>
-  </si>
-  <si>
-    <t>获取成员详情</t>
-  </si>
-  <si>
-    <t>/s/getDepartmentMember.action</t>
   </si>
   <si>
     <t>根据手机号或用户名搜索用户</t>
@@ -192,10 +195,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -234,6 +237,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -249,15 +260,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,11 +291,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -288,7 +337,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -311,56 +360,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -403,7 +406,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,7 +466,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,73 +484,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,13 +514,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,8 +579,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,6 +624,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -623,24 +646,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,11 +667,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,10 +681,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -693,16 +696,16 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,97 +714,97 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1199,10 +1202,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R145"/>
+  <dimension ref="A1:R146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="L122" sqref="L122"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2143,7 +2146,7 @@
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
@@ -2320,14 +2323,14 @@
       </c>
       <c r="L84" s="6"/>
       <c r="M84" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2344,7 +2347,7 @@
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q99" s="8"/>
       <c r="R99" s="8"/>
@@ -2398,7 +2401,7 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2484,7 +2487,7 @@
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
@@ -2661,14 +2664,14 @@
       </c>
       <c r="L113" s="6"/>
       <c r="M113" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -2731,7 +2734,7 @@
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2881,7 +2884,7 @@
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
       <c r="K136" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L136" s="9"/>
       <c r="M136" s="9"/>
@@ -3072,10 +3075,27 @@
       </c>
       <c r="L145" s="9"/>
       <c r="M145" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N145" s="9"/>
       <c r="O145" s="9"/>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="9"/>
+      <c r="L146" s="9"/>
+      <c r="M146" s="9"/>
+      <c r="N146" s="9"/>
+      <c r="O146" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="210">

--- a/需求分析/接口文档/客户/团队接口.xlsx
+++ b/需求分析/接口文档/客户/团队接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23025" windowHeight="9360"/>
+    <workbookView windowWidth="26415" windowHeight="8850"/>
   </bookViews>
   <sheets>
     <sheet name="团队" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>获取部门列表</t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t>memberList(json数组)</t>
+  </si>
+  <si>
+    <t>获取团队内所有成员</t>
+  </si>
+  <si>
+    <t>/s/listAllMember.action</t>
   </si>
 </sst>
 </file>
@@ -195,10 +201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -238,10 +244,25 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,60 +274,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -322,7 +291,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,7 +299,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,14 +337,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -406,31 +412,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,31 +454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,7 +478,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,19 +496,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,49 +568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,6 +582,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -585,11 +606,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,6 +632,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,47 +673,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -681,145 +687,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1202,10 +1208,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R146"/>
+  <dimension ref="A1:R170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156:O157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3080,25 +3086,337 @@
       <c r="N145" s="9"/>
       <c r="O145" s="9"/>
     </row>
-    <row r="146" spans="1:15">
-      <c r="A146" s="5"/>
-      <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="5"/>
-      <c r="K146" s="9"/>
-      <c r="L146" s="9"/>
-      <c r="M146" s="9"/>
-      <c r="N146" s="9"/>
-      <c r="O146" s="9"/>
+    <row r="156" spans="1:15">
+      <c r="A156" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+    </row>
+    <row r="158" spans="1:15">
+      <c r="A158" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L158" s="2"/>
+      <c r="M158" s="2"/>
+      <c r="N158" s="2"/>
+      <c r="O158" s="2"/>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3"/>
+      <c r="K159" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L159" s="3"/>
+      <c r="M159" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N159" s="3"/>
+      <c r="O159" s="3"/>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G160" s="4"/>
+      <c r="H160" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
+      <c r="K160" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L160" s="4"/>
+      <c r="M160" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N160" s="4"/>
+      <c r="O160" s="4"/>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G161" s="4"/>
+      <c r="H161" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I161" s="4"/>
+      <c r="J161" s="4"/>
+      <c r="K161" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L161" s="4"/>
+      <c r="M161" s="4"/>
+      <c r="N161" s="4"/>
+      <c r="O161" s="4"/>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="A162" s="7"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="4"/>
+      <c r="I162" s="4"/>
+      <c r="J162" s="4"/>
+      <c r="K162" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L162" s="6"/>
+      <c r="M162" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N162" s="4"/>
+      <c r="O162" s="4"/>
+    </row>
+    <row r="163" spans="1:15">
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="5"/>
+      <c r="K163" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L163" s="6"/>
+      <c r="M163" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N163" s="4"/>
+      <c r="O163" s="4"/>
+    </row>
+    <row r="164" spans="1:15">
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5"/>
+      <c r="K164" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L164" s="6"/>
+      <c r="M164" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N164" s="4"/>
+      <c r="O164" s="4"/>
+    </row>
+    <row r="165" spans="1:15">
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="5"/>
+      <c r="K165" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L165" s="6"/>
+      <c r="M165" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N165" s="4"/>
+      <c r="O165" s="4"/>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5"/>
+      <c r="K166" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L166" s="6"/>
+      <c r="M166" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N166" s="4"/>
+      <c r="O166" s="4"/>
+    </row>
+    <row r="167" spans="1:15">
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="5"/>
+      <c r="K167" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L167" s="6"/>
+      <c r="M167" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N167" s="4"/>
+      <c r="O167" s="4"/>
+    </row>
+    <row r="168" spans="1:15">
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5"/>
+      <c r="K168" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L168" s="6"/>
+      <c r="M168" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N168" s="4"/>
+      <c r="O168" s="4"/>
+    </row>
+    <row r="169" spans="1:15">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="5"/>
+      <c r="K169" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L169" s="6"/>
+      <c r="M169" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N169" s="4"/>
+      <c r="O169" s="4"/>
+    </row>
+    <row r="170" spans="1:15">
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="5"/>
+      <c r="K170" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L170" s="6"/>
+      <c r="M170" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N170" s="4"/>
+      <c r="O170" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="210">
+  <mergeCells count="247">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -3302,6 +3620,42 @@
     <mergeCell ref="M144:O144"/>
     <mergeCell ref="K145:L145"/>
     <mergeCell ref="M145:O145"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="H158:J158"/>
+    <mergeCell ref="K158:O158"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="H159:J159"/>
+    <mergeCell ref="K159:L159"/>
+    <mergeCell ref="M159:O159"/>
+    <mergeCell ref="F160:G160"/>
+    <mergeCell ref="H160:J160"/>
+    <mergeCell ref="K160:L160"/>
+    <mergeCell ref="M160:O160"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="H161:J161"/>
+    <mergeCell ref="K161:O161"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="H162:J162"/>
+    <mergeCell ref="K162:L162"/>
+    <mergeCell ref="M162:O162"/>
+    <mergeCell ref="K163:L163"/>
+    <mergeCell ref="M163:O163"/>
+    <mergeCell ref="K164:L164"/>
+    <mergeCell ref="M164:O164"/>
+    <mergeCell ref="K165:L165"/>
+    <mergeCell ref="M165:O165"/>
+    <mergeCell ref="K166:L166"/>
+    <mergeCell ref="M166:O166"/>
+    <mergeCell ref="K167:L167"/>
+    <mergeCell ref="M167:O167"/>
+    <mergeCell ref="K168:L168"/>
+    <mergeCell ref="M168:O168"/>
+    <mergeCell ref="K169:L169"/>
+    <mergeCell ref="M169:O169"/>
+    <mergeCell ref="K170:L170"/>
+    <mergeCell ref="M170:O170"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A22:O23"/>
     <mergeCell ref="A44:O45"/>
@@ -3309,6 +3663,7 @@
     <mergeCell ref="A99:O100"/>
     <mergeCell ref="P99:R100"/>
     <mergeCell ref="A127:O128"/>
+    <mergeCell ref="A156:O157"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/需求分析/接口文档/客户/团队接口.xlsx
+++ b/需求分析/接口文档/客户/团队接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26415" windowHeight="8850"/>
+    <workbookView windowWidth="19095" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="团队" sheetId="1" r:id="rId1"/>
@@ -201,10 +201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -351,8 +351,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,9 +366,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,25 +412,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,49 +454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,30 +490,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -551,6 +497,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,6 +539,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,145 +687,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1210,8 +1210,8 @@
   <sheetPr/>
   <dimension ref="A1:R170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156:O157"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/团队接口.xlsx
+++ b/需求分析/接口文档/客户/团队接口.xlsx
@@ -201,10 +201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -243,9 +243,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,27 +265,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,7 +282,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,9 +296,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,6 +326,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -353,21 +351,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,13 +412,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,19 +478,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,13 +520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,43 +544,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,17 +582,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,16 +601,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,6 +632,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -646,39 +679,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -687,145 +687,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1210,8 +1210,8 @@
   <sheetPr/>
   <dimension ref="A1:R170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26:J26"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="I166" sqref="I166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/团队接口.xlsx
+++ b/需求分析/接口文档/客户/团队接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7830"/>
+    <workbookView windowWidth="18855" windowHeight="9705"/>
   </bookViews>
   <sheets>
     <sheet name="团队" sheetId="1" r:id="rId1"/>
@@ -201,10 +201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -244,7 +244,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,21 +275,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -282,6 +290,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -289,22 +312,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -314,13 +322,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,7 +344,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,15 +360,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,7 +412,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,25 +520,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,115 +568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,17 +585,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,17 +621,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,21 +669,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -687,10 +687,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,67 +699,118 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -768,64 +819,13 @@
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1210,8 +1210,8 @@
   <sheetPr/>
   <dimension ref="A1:R170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="I166" sqref="I166"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="I165" sqref="I165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/需求分析/接口文档/客户/团队接口.xlsx
+++ b/需求分析/接口文档/客户/团队接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18855" windowHeight="9705"/>
+    <workbookView windowWidth="22290" windowHeight="9135"/>
   </bookViews>
   <sheets>
     <sheet name="团队" sheetId="1" r:id="rId1"/>
@@ -201,10 +201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -243,31 +243,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,30 +260,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,22 +284,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -344,7 +291,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,6 +306,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -366,8 +321,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,13 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,7 +430,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,25 +454,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,13 +478,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,37 +520,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,13 +550,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,7 +568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,45 +579,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -639,17 +600,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,6 +621,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -679,6 +646,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -687,10 +687,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,133 +699,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1210,8 +1210,8 @@
   <sheetPr/>
   <dimension ref="A1:R170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="I165" sqref="I165"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="H169" sqref="H169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
